--- a/finance/aapl.xlsx
+++ b/finance/aapl.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="aapl" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>P</t>
   </si>
@@ -72,9 +72,6 @@
     <t>cost goods</t>
   </si>
   <si>
-    <t>INCOME</t>
-  </si>
-  <si>
     <t>R&amp;D</t>
   </si>
   <si>
@@ -118,6 +115,63 @@
   </si>
   <si>
     <t>revenue y/y</t>
+  </si>
+  <si>
+    <t>Balance Sheet</t>
+  </si>
+  <si>
+    <t>Income Statement</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>A/R</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Vendor NTR</t>
+  </si>
+  <si>
+    <t>OCA</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Goodwill+Intangibles</t>
+  </si>
+  <si>
+    <t>ONCA</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>A/P</t>
+  </si>
+  <si>
+    <t>A/E</t>
+  </si>
+  <si>
+    <t>D/R</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>ONCL</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>S/E</t>
+  </si>
+  <si>
+    <t>L+S/E</t>
   </si>
 </sst>
 </file>
@@ -601,7 +655,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -610,6 +664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -680,8 +735,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -690,8 +745,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6048375" y="0"/>
-          <a:ext cx="9525" cy="4638675"/>
+          <a:off x="7467600" y="0"/>
+          <a:ext cx="9525" cy="8534400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -980,20 +1035,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1004,10 +1059,10 @@
         <v>109.56</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -1084,7 +1139,7 @@
         <v>215739</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="7">
         <f>F2-F3</f>
@@ -1121,7 +1176,7 @@
         <v>607311737.48000002</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7">
         <v>1895</v>
@@ -1135,7 +1190,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7">
         <v>3600</v>
@@ -1149,7 +1204,7 @@
     </row>
     <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="6">
         <f>F4-(F6+F7)</f>
@@ -1165,7 +1220,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7">
         <v>170</v>
@@ -1179,7 +1234,7 @@
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="6">
         <f>F8+F9</f>
@@ -1195,7 +1250,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="7">
         <v>6392</v>
@@ -1209,7 +1264,7 @@
     </row>
     <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="6">
         <f>F10-F11</f>
@@ -1222,7 +1277,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="7">
         <v>5544.5829999999996</v>
@@ -1233,7 +1288,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="1">
         <f>F12/F13</f>
@@ -1259,7 +1314,7 @@
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="2">
         <f>F8/F2</f>
@@ -1272,7 +1327,7 @@
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" s="2">
         <f>F12/F2</f>
@@ -1285,7 +1340,7 @@
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="2">
         <f>F11/F10</f>
@@ -1296,13 +1351,164 @@
         <v>0.25279778618809262</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="2">
+    <row r="21" spans="5:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="8">
         <f>J2/F2-1</f>
         <v>1.7064571911151516E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24">
+        <f>16689+21385+177665</f>
+        <v>215739</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25">
+        <f>12953</f>
+        <v>12953</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27">
+        <v>11668</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28">
+        <v>11073</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29">
+        <v>22300</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30">
+        <f>5202+3924</f>
+        <v>9126</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31">
+        <v>7974</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" s="4">
+        <f>SUM(J24:J31)</f>
+        <v>293284</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34">
+        <v>33312</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35">
+        <v>24032</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36">
+        <f>8989+3546</f>
+        <v>12535</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37">
+        <f>7259+2500+53204</f>
+        <v>62963</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38">
+        <f>32175</f>
+        <v>32175</v>
+      </c>
+    </row>
+    <row r="39" spans="5:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J39" s="4">
+        <f>SUM(J34:J38)</f>
+        <v>165017</v>
+      </c>
+    </row>
+    <row r="41" spans="5:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J41" s="4">
+        <f>J32-J39</f>
+        <v>128267</v>
+      </c>
+    </row>
+    <row r="42" spans="5:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J42" s="4">
+        <f>J41+J39</f>
+        <v>293284</v>
       </c>
     </row>
   </sheetData>
